--- a/Module1/task3/3.11.xlsx
+++ b/Module1/task3/3.11.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Analytics_cafedra\task3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Analytics_cafedra\Module1\task3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF79F5B-A128-43E8-B349-34D769A5E25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2446FF0B-41FA-4E29-83EB-1C2707211F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sex" sheetId="3" r:id="rId1"/>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="22">
   <si>
     <t>﻿PassengerId</t>
   </si>
@@ -347,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -373,6 +373,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11737,8 +11743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85526E4-4854-4CEA-8146-9FC7813A3347}">
   <dimension ref="A3:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11772,7 +11778,7 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -11838,7 +11844,7 @@
   <dimension ref="A3:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12008,7 +12014,7 @@
   <dimension ref="A3:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12016,7 +12022,7 @@
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12029,6 +12035,9 @@
       </c>
       <c r="C3" t="s">
         <v>16</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -12571,9 +12580,9 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
